--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Desktop\EMPRESARIAL\01.ESTRATÉGIA\03.DIRETORIA\01.FLÁVIO\GESTÃO DE FONTES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Documents\GitHub\repositorio\Base_Dados\Plano_de_Expansao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9963AA-D500-47E0-B30A-5B696AA2ADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8494CC61-DFCC-41F7-8AAB-35EE7BA10664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Cooperativa</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>green</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +448,7 @@
         <v>-50.938200700000003</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Documents\GitHub\repositorio\Base_Dados\Plano_de_Expansao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8494CC61-DFCC-41F7-8AAB-35EE7BA10664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F6B6C-4CB4-4F6B-948F-34803FB251D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -124,6 +130,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +414,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,11 +448,11 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>-17.797557600000001</v>
+      <c r="C2" s="4">
+        <v>-17.797750000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-50.938200700000003</v>
+        <v>-50.936033000000002</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Documents\GitHub\repositorio\Base_Dados\Plano_de_Expansao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F6B6C-4CB4-4F6B-948F-34803FB251D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1FD417-2193-47FA-933E-828515D42BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Cooperativa</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Ag. Industria</t>
-  </si>
-  <si>
-    <t>Ag. Buriti Shopping</t>
-  </si>
-  <si>
     <t>Sede</t>
   </si>
   <si>
@@ -70,26 +64,35 @@
   </si>
   <si>
     <t>green</t>
+  </si>
+  <si>
+    <t>Nova Ag. - Cidade Empresarial</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>Buriti Shopping</t>
+  </si>
+  <si>
+    <t>Bairro Popular</t>
+  </si>
+  <si>
+    <t>Praça 5 de Agosto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,16 +124,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -446,16 +451,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-17.797750000000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-50.936033000000002</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-17.797779899999998</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-50.936132000000001</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -463,16 +468,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
         <v>-17.7976472</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>-50.927802800000002</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -480,16 +485,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-17.788699600000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-50.918892</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-17.788699600000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-50.918892</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -497,16 +502,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-17.797735800000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-50.927865099999998</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-17.788882099999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-50.919224499999999</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -514,33 +519,50 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
         <v>-17.818757999999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>-50.943767000000001</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-17.823115000000001</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-17.827660999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>-50.960867</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
+        <v>-50.959423999999999</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-17.780068</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-50.916111000000001</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Documents\GitHub\repositorio\Base_Dados\Plano_de_Expansao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1FD417-2193-47FA-933E-828515D42BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A33D4-76A5-426F-AD18-14B54BDF0779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Cooperativa</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Sede</t>
-  </si>
-  <si>
-    <t>Nova Sede</t>
   </si>
   <si>
     <t>blue</t>
@@ -416,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -460,109 +457,92 @@
         <v>-50.936132000000001</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-17.788699600000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-50.918892</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-17.7976472</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-50.927802800000002</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-17.788699600000001</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-50.918892</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-17.797735800000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-50.927865099999998</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-17.797735800000002</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-17.818757999999999</v>
       </c>
       <c r="D5" s="4">
-        <v>-50.927865099999998</v>
+        <v>-50.943767000000001</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5">
-        <v>-17.818757999999999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-50.943767000000001</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-17.827660999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-50.959423999999999</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>-17.827660999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-50.959423999999999</v>
+        <v>-17.780068</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-50.916111000000001</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-17.780068</v>
-      </c>
-      <c r="D8" s="6">
-        <v>-50.916111000000001</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Documents\GitHub\repositorio\Base_Dados\Plano_de_Expansao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A33D4-76A5-426F-AD18-14B54BDF0779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32F7112-FA2A-45A5-9440-99C04FA47961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Documents\GitHub\repositorio\Base_Dados\Plano_de_Expansao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32F7112-FA2A-45A5-9440-99C04FA47961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAF7BDF-330F-474D-8902-DB5C178D79E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Cooperativa</t>
   </si>
@@ -76,14 +86,16 @@
   </si>
   <si>
     <t>Praça 5 de Agosto</t>
+  </si>
+  <si>
+    <t>Cooperativa Comigo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -132,7 +144,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,17 +425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -468,10 +480,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>-17.788699600000001</v>
+        <v>-17.788611499999998</v>
       </c>
       <c r="D3" s="3">
-        <v>-50.918892</v>
+        <v>-50.918542299999999</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -479,7 +491,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -538,10 +550,27 @@
       <c r="C7" s="2">
         <v>-17.780068</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>-50.916111000000001</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-17.788781400000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-50.918684900000002</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Documents\GitHub\repositorio\Base_Dados\Plano_de_Expansao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Desktop\EMPRESARIAL\01.ESTRATÉGIA\03.DIRETORIA\01.FLÁVIO\GESTÃO DE FONTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAF7BDF-330F-474D-8902-DB5C178D79E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F36944C-24D8-416F-994E-8C6C47F58FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Cooperativa</t>
   </si>
@@ -61,34 +51,25 @@
     <t>Tipo</t>
   </si>
   <si>
+    <t>Ag. Industria</t>
+  </si>
+  <si>
+    <t>Ag. Buriti Shopping</t>
+  </si>
+  <si>
     <t>Sede</t>
   </si>
   <si>
+    <t>Nova Sede</t>
+  </si>
+  <si>
     <t>blue</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>Nova Ag. - Cidade Empresarial</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>Buriti Shopping</t>
-  </si>
-  <si>
-    <t>Bairro Popular</t>
-  </si>
-  <si>
-    <t>Praça 5 de Agosto</t>
-  </si>
-  <si>
-    <t>Cooperativa Comigo</t>
+    <t>Cooperado PJ</t>
   </si>
 </sst>
 </file>
@@ -96,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -108,6 +89,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,18 +115,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,14 +407,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -452,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -460,118 +439,118 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-17.797779899999998</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-50.936132000000001</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-17.797557600000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-50.938200700000003</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-17.788611499999998</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-50.918542299999999</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-17.7976472</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-50.927802800000002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-17.797735800000002</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-50.927865099999998</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-17.788699600000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-50.918892</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5">
-        <v>-17.818757999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-50.943767000000001</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-17.788882099999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-50.919224499999999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-17.827660999999999</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-17.818757999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>-50.959423999999999</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>-50.943767000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-17.780068</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-17.823115000000001</v>
       </c>
       <c r="D7" s="2">
-        <v>-50.916111000000001</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>-50.960867</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-17.788781400000001</v>
-      </c>
-      <c r="D8" s="6">
-        <v>-50.918684900000002</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>-17.788436420236</v>
+      </c>
+      <c r="D8">
+        <v>-50.918530411040003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Desktop\EMPRESARIAL\01.ESTRATÉGIA\03.DIRETORIA\01.FLÁVIO\GESTÃO DE FONTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F36944C-24D8-416F-994E-8C6C47F58FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15D3049-61B5-420B-838D-E0467596D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Cooperativa</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Ag. Industria</t>
-  </si>
-  <si>
     <t>Ag. Buriti Shopping</t>
   </si>
   <si>
@@ -70,14 +67,24 @@
   </si>
   <si>
     <t>Cooperado PJ</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>Cidade Empresarial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,13 +122,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -407,7 +417,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +441,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -439,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>-17.797557600000001</v>
@@ -448,7 +458,7 @@
         <v>-50.938200700000003</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -456,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>-17.7976472</v>
@@ -465,7 +475,7 @@
         <v>-50.927802800000002</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -473,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>-17.788699600000001</v>
@@ -482,7 +492,7 @@
         <v>-50.918892</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -490,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>-17.788882099999999</v>
@@ -499,7 +509,7 @@
         <v>-50.919224499999999</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -507,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>-17.818757999999999</v>
@@ -516,24 +526,24 @@
         <v>-50.943767000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-17.823115000000001</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-17.827689627877302</v>
       </c>
       <c r="D7" s="2">
-        <v>-50.960867</v>
+        <v>-50.959425140230202</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -541,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>-17.788436420236</v>
@@ -550,7 +560,7 @@
         <v>-50.918530411040003</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Desktop\EMPRESARIAL\01.ESTRATÉGIA\03.DIRETORIA\01.FLÁVIO\GESTÃO DE FONTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15D3049-61B5-420B-838D-E0467596D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B2763-04A8-418F-9938-C8B1C9DB147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,7 +131,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>-17.797557600000001</v>
+        <v>-17.797383926293399</v>
       </c>
       <c r="D2" s="1">
-        <v>-50.938200700000003</v>
+        <v>-50.9360120023075</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Desktop\EMPRESARIAL\01.ESTRATÉGIA\03.DIRETORIA\01.FLÁVIO\GESTÃO DE FONTES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B2763-04A8-418F-9938-C8B1C9DB147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DD3101-4E07-4E30-A25A-A2FEEA81EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Cooperativa</t>
   </si>
@@ -51,31 +61,37 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Ag. Buriti Shopping</t>
-  </si>
-  <si>
     <t>Sede</t>
   </si>
   <si>
-    <t>Nova Sede</t>
-  </si>
-  <si>
     <t>blue</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>Cooperado PJ</t>
-  </si>
-  <si>
     <t>green</t>
   </si>
   <si>
+    <t>Nova Ag. - Cidade Empresarial</t>
+  </si>
+  <si>
     <t>yellow</t>
   </si>
   <si>
-    <t>Cidade Empresarial</t>
+    <t>Buriti Shopping</t>
+  </si>
+  <si>
+    <t>Bairro Popular</t>
+  </si>
+  <si>
+    <t>Praça 5 de Agosto</t>
+  </si>
+  <si>
+    <t>Cooperativa Comigo</t>
+  </si>
+  <si>
+    <t>PA Pessoal jurídica</t>
   </si>
 </sst>
 </file>
@@ -83,8 +99,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -96,7 +112,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,18 +137,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,17 +430,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -441,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -449,118 +465,135 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-17.797383926293399</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-50.9360120023075</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-17.797779899999998</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-50.936132000000001</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-17.7976472</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-50.927802800000002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-17.788611499999998</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-50.918542299999999</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-17.797735800000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-50.927865099999998</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-17.788699600000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-50.918892</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-17.818757999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-50.943767000000001</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-17.788882099999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-50.919224499999999</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-17.818757999999999</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-17.827660999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>-50.943767000000001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
+        <v>-50.959423999999999</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-17.827689627877302</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-17.780068</v>
       </c>
       <c r="D7" s="2">
-        <v>-50.959425140230202</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
+        <v>-50.916111000000001</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-17.788781400000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-50.918684900000002</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>-17.788436420236</v>
-      </c>
-      <c r="D8">
-        <v>-50.918530411040003</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-17.7883103515159</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-50.918237382365497</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Desktop\EMPRESARIAL\01.ESTRATÉGIA\03.DIRETORIA\01.FLÁVIO\PLANO DE EXPANSÃO\ARQUIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DD3101-4E07-4E30-A25A-A2FEEA81EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B49A61-428F-4778-85B8-CEF4741097E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Cooperativa</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>PA Pessoal jurídica</t>
+  </si>
+  <si>
+    <t>Nova Sede ADM</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,7 +152,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,6 +599,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7">
+        <v>-17.790740803423201</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-50.922744466387201</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Desktop\EMPRESARIAL\01.ESTRATÉGIA\03.DIRETORIA\01.FLÁVIO\PLANO DE EXPANSÃO\ARQUIVO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Documents\GitHub\repositorio\Base_Dados\Plano_de_Expansao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B49A61-428F-4778-85B8-CEF4741097E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB84FB87-57CB-4ADD-ADC0-3CF2EF9DEE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Cooperativa</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Nova Sede ADM</t>
+  </si>
+  <si>
+    <t>Nova AG. Primavera</t>
   </si>
 </sst>
 </file>
@@ -140,14 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -433,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,10 +506,10 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>-17.797735800000002</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>-50.927865099999998</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -521,10 +523,10 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>-17.818757999999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>-50.943767000000001</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -572,10 +574,10 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>-17.788781400000001</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>-50.918684900000002</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -589,10 +591,10 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>-17.7883103515159</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>-50.918237382365497</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -606,13 +608,30 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>-17.790740803423201</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>-50.922744466387201</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>-17.776527000000002</v>
+      </c>
+      <c r="D11">
+        <v>-50.923121000000002</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
+++ b/Base_Dados/Plano_de_Expansao/agencias_rio_verde.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SicoobEmp\Documents\GitHub\repositorio\Base_Dados\Plano_de_Expansao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB84FB87-57CB-4ADD-ADC0-3CF2EF9DEE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B9013-17D6-4F5A-8EFD-8BCFCFB5531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Cooperativa</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Nova AG. Primavera</t>
+  </si>
+  <si>
+    <t>Nova AG. Presidente Vargas</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +635,24 @@
         <v>-50.923121000000002</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>-17.791462800000001</v>
+      </c>
+      <c r="D12">
+        <v>-50.924226599999997</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
